--- a/Datos/coes_2017.xlsx
+++ b/Datos/coes_2017.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminmunozrojas/pCloud Sync/7_COES/5_Otros/Redes_COES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminmunozrojas/pCloud Sync/7_COES/5_Otros/Redes_COES/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAF586F6-140B-174D-9482-BD9F05481656}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DD3F2A6-E464-FE42-8070-D2A4C29FDA42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="14940" xr2:uid="{9D83F027-208E-924D-A394-E329EB77F8B9}"/>
+    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="14940" xr2:uid="{F211E4C9-93E0-BE46-9AE4-333E8E3F820F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,158 +32,158 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="65">
   <si>
-    <t>Aldo Madariaga</t>
+    <t>A. Madariaga</t>
   </si>
   <si>
-    <t>Alejandro Marambio</t>
+    <t>A. Marambio</t>
   </si>
   <si>
-    <t>Alfredo Joignant</t>
+    <t>A. Joignant</t>
   </si>
   <si>
-    <t>Ana Figueiredo</t>
+    <t>A. Figueiredo</t>
   </si>
   <si>
-    <t>Ana Velitchkova</t>
+    <t>A. Velitchkova</t>
   </si>
   <si>
-    <t>Antoine Maillet</t>
+    <t>A. Maillet</t>
   </si>
   <si>
-    <t>Carolina Aguilera</t>
+    <t>C. Aguilera</t>
   </si>
   <si>
-    <t>Catherine Reyes-Housholder</t>
+    <t>C. Reyes-Housholder</t>
   </si>
   <si>
-    <t>Claudia Heiss</t>
+    <t>C. Heiss</t>
   </si>
   <si>
-    <t>Claudia Sanhueza</t>
+    <t>C. Sanhueza</t>
   </si>
   <si>
-    <t>Cristian Doñas</t>
+    <t>C. Doñas</t>
   </si>
   <si>
-    <t>Cristóbal Rovira</t>
+    <t>C. Rovira</t>
   </si>
   <si>
-    <t>Daniel Hojman</t>
+    <t>D. Hojman</t>
   </si>
   <si>
-    <t xml:space="preserve">Daniela Jara </t>
+    <t xml:space="preserve">D. Jara </t>
   </si>
   <si>
-    <t>Dante Contreras</t>
+    <t>D. Contreras</t>
   </si>
   <si>
-    <t>Dariela Sharim</t>
+    <t>D. Sharim</t>
   </si>
   <si>
-    <t xml:space="preserve">Diana Kruger </t>
+    <t xml:space="preserve">D. Kruger </t>
   </si>
   <si>
-    <t>Emmanuelle Barozet</t>
+    <t>E. Barozet</t>
   </si>
   <si>
-    <t>Ernesto López</t>
+    <t>E. López</t>
   </si>
   <si>
-    <t>Fabian Duarte</t>
+    <t>F. Duarte</t>
   </si>
   <si>
-    <t>Felipe Link</t>
+    <t>F. Link</t>
   </si>
   <si>
-    <t>Francisca Gutiérrez</t>
+    <t>F. Gutiérrez</t>
   </si>
   <si>
-    <t>Francisco Pino</t>
+    <t>F. Pino</t>
   </si>
   <si>
-    <t>Gloria Jiménez-Moya</t>
+    <t>G. Jiménez-Moya</t>
   </si>
   <si>
-    <t>Gonzalo de la Maza</t>
+    <t>G. de la Maza</t>
   </si>
   <si>
-    <t>Héctor Carvacho</t>
+    <t>H. Carvacho</t>
   </si>
   <si>
-    <t>Hugo Romero</t>
+    <t>H. Romero</t>
   </si>
   <si>
-    <t>Ignacio Madero-Cabib</t>
+    <t>I. Madero-Cabib</t>
   </si>
   <si>
-    <t>Ismael Puga</t>
+    <t>I. Puga</t>
   </si>
   <si>
-    <t>Javier Couso</t>
+    <t>J. Couso</t>
   </si>
   <si>
-    <t>Jorge Atria</t>
+    <t>J. Atria</t>
   </si>
   <si>
-    <t>Juan Carlos Castillo</t>
+    <t>JC. Castillo</t>
   </si>
   <si>
-    <t>Kirsten Sehnbruch</t>
+    <t>K. Sehnbruch</t>
   </si>
   <si>
-    <t>Luis Valenzuela</t>
+    <t>L. Valenzuela</t>
   </si>
   <si>
-    <t>Manuel Gárate</t>
+    <t>M. Gárate</t>
   </si>
   <si>
-    <t>Marcela Cornejo</t>
+    <t>M. Cornejo</t>
   </si>
   <si>
-    <t>María Luisa Méndez</t>
+    <t>ML. Méndez</t>
   </si>
   <si>
-    <t>Mathilde Allain</t>
+    <t>M. Allain</t>
   </si>
   <si>
-    <t>Matías Bargsted</t>
+    <t>M. Bargsted</t>
   </si>
   <si>
-    <t>Matías Garretón</t>
+    <t>M. Garretón</t>
   </si>
   <si>
-    <t>Matías Sanfuentes</t>
+    <t>M. Sanfuentes</t>
   </si>
   <si>
-    <t>Mauricio Morales</t>
+    <t>M. Morales</t>
   </si>
   <si>
-    <t>Mauro Basaure</t>
+    <t>M. Basaure</t>
   </si>
   <si>
-    <t>Miguel Pérez Ahumada</t>
+    <t>M. Pérez Ahumada</t>
   </si>
   <si>
-    <t>Miguel Vargas</t>
+    <t>M. Vargas</t>
   </si>
   <si>
-    <t>Mónica Gerber</t>
+    <t>M. Gerber</t>
   </si>
   <si>
-    <t>Nicolás Angelcos</t>
+    <t>N. Angelcos</t>
   </si>
   <si>
-    <t>Nicolás Grau</t>
+    <t>N. Grau</t>
   </si>
   <si>
-    <t>Nicolás Somma</t>
+    <t>N. Somma</t>
   </si>
   <si>
-    <t>Pablo De Tezanos</t>
+    <t>P. De Tezanos</t>
   </si>
   <si>
     <r>
-      <t>Pablo Pérez Ahumada</t>
+      <t>P. Pérez Ahumada</t>
     </r>
     <r>
       <rPr>
@@ -195,59 +195,76 @@
     </r>
   </si>
   <si>
-    <t>Paola Bordón</t>
+    <t>P. Bordón</t>
   </si>
   <si>
-    <t>Paola Diaz</t>
+    <t>P. Diaz</t>
   </si>
   <si>
-    <t>Paola Sevilla</t>
+    <t>P. Sevilla</t>
   </si>
   <si>
-    <t>Patricio Aroca</t>
+    <t>P. Aroca</t>
   </si>
   <si>
-    <t>Patricio Cumsille</t>
+    <t>P. Cumsille</t>
   </si>
   <si>
-    <t>Patricio Navia</t>
+    <t>P. Navia</t>
   </si>
   <si>
-    <t>Paula Luengo</t>
+    <t>P. Luengo</t>
   </si>
   <si>
-    <t>Pauline Clech</t>
+    <t>P. Clech</t>
   </si>
   <si>
-    <t>Roberto González</t>
+    <t>R. González</t>
   </si>
   <si>
-    <t>Sebastián Gallegos</t>
+    <t>S. Gallegos</t>
   </si>
   <si>
-    <t>Sofía Donoso</t>
+    <t>S. Donoso</t>
   </si>
   <si>
-    <t>Tomás Undurraga</t>
+    <t>T. Undurraga</t>
   </si>
   <si>
-    <t>Valentina Paredes</t>
+    <t>V. Paredes</t>
   </si>
   <si>
-    <t>Vicente Espinoza</t>
+    <t>V. Espinoza</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Trebuchet MS"/>
     </font>
     <font>
       <sz val="11"/>
@@ -260,15 +277,8 @@
       <color rgb="FF737E86"/>
       <name val="Trebuchet MS"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,7 +287,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF22AFB3"/>
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -290,6 +312,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF22AFB3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,25 +352,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -640,218 +716,218 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DDC853-4DB1-BA4C-9B51-9F522F095183}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE5F28B2-43A2-9A4E-908C-CCCB09942539}">
   <dimension ref="A1:BN66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:BN66"/>
+      <selection sqref="A1:BN67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AT1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AU1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AV1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AW1" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AX1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AY1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="AZ1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BA1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BC1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BD1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BE1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BF1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BG1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BH1" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BI1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BJ1" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BK1" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BL1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BM1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BN1" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15">
         <v>0</v>
       </c>
       <c r="C2" s="1">
@@ -1048,13 +1124,13 @@
       </c>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="15">
         <v>0</v>
       </c>
       <c r="D3" s="1">
@@ -1248,7 +1324,7 @@
       </c>
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
@@ -1257,7 +1333,7 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="15">
         <v>0</v>
       </c>
       <c r="E4" s="1">
@@ -1344,8 +1420,8 @@
       <c r="AF4" s="1">
         <v>0</v>
       </c>
-      <c r="AG4" s="1">
-        <v>0</v>
+      <c r="AG4" s="2">
+        <v>1</v>
       </c>
       <c r="AH4" s="1">
         <v>0</v>
@@ -1365,8 +1441,8 @@
       <c r="AM4" s="1">
         <v>0</v>
       </c>
-      <c r="AN4" s="1">
-        <v>0</v>
+      <c r="AN4" s="3">
+        <v>1</v>
       </c>
       <c r="AO4" s="1">
         <v>0</v>
@@ -1377,8 +1453,8 @@
       <c r="AQ4" s="1">
         <v>0</v>
       </c>
-      <c r="AR4" s="1">
-        <v>0</v>
+      <c r="AR4" s="4">
+        <v>1</v>
       </c>
       <c r="AS4" s="1">
         <v>0</v>
@@ -1395,8 +1471,8 @@
       <c r="AW4" s="1">
         <v>0</v>
       </c>
-      <c r="AX4" s="1">
-        <v>0</v>
+      <c r="AX4" s="3">
+        <v>1</v>
       </c>
       <c r="AY4" s="1">
         <v>0</v>
@@ -1448,7 +1524,7 @@
       </c>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
@@ -1460,11 +1536,11 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -1490,8 +1566,8 @@
       <c r="N5" s="1">
         <v>0</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
+      <c r="O5" s="8">
+        <v>1</v>
       </c>
       <c r="P5" s="1">
         <v>0</v>
@@ -1514,20 +1590,20 @@
       <c r="V5" s="1">
         <v>0</v>
       </c>
-      <c r="W5" s="1">
-        <v>0</v>
+      <c r="W5" s="8">
+        <v>1</v>
       </c>
       <c r="X5" s="1">
         <v>0</v>
       </c>
-      <c r="Y5" s="1">
-        <v>0</v>
+      <c r="Y5" s="7">
+        <v>1</v>
       </c>
       <c r="Z5" s="1">
         <v>0</v>
       </c>
-      <c r="AA5" s="1">
-        <v>0</v>
+      <c r="AA5" s="5">
+        <v>1</v>
       </c>
       <c r="AB5" s="1">
         <v>0</v>
@@ -1535,8 +1611,8 @@
       <c r="AC5" s="1">
         <v>0</v>
       </c>
-      <c r="AD5" s="1">
-        <v>0</v>
+      <c r="AD5" s="5">
+        <v>1</v>
       </c>
       <c r="AE5" s="1">
         <v>0</v>
@@ -1586,8 +1662,8 @@
       <c r="AT5" s="1">
         <v>0</v>
       </c>
-      <c r="AU5" s="1">
-        <v>0</v>
+      <c r="AU5" s="5">
+        <v>1</v>
       </c>
       <c r="AV5" s="1">
         <v>0</v>
@@ -1622,8 +1698,8 @@
       <c r="BF5" s="1">
         <v>0</v>
       </c>
-      <c r="BG5" s="1">
-        <v>0</v>
+      <c r="BG5" s="6">
+        <v>1</v>
       </c>
       <c r="BH5" s="1">
         <v>0</v>
@@ -1634,21 +1710,21 @@
       <c r="BJ5" s="1">
         <v>0</v>
       </c>
-      <c r="BK5" s="1">
-        <v>0</v>
+      <c r="BK5" s="6">
+        <v>1</v>
       </c>
       <c r="BL5" s="1">
         <v>0</v>
       </c>
-      <c r="BM5" s="1">
-        <v>0</v>
+      <c r="BM5" s="3">
+        <v>1</v>
       </c>
       <c r="BN5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
@@ -1660,10 +1736,10 @@
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15">
         <v>0</v>
       </c>
       <c r="G6" s="1">
@@ -1714,8 +1790,8 @@
       <c r="V6" s="1">
         <v>0</v>
       </c>
-      <c r="W6" s="1">
-        <v>0</v>
+      <c r="W6" s="8">
+        <v>1</v>
       </c>
       <c r="X6" s="1">
         <v>0</v>
@@ -1822,8 +1898,8 @@
       <c r="BF6" s="1">
         <v>0</v>
       </c>
-      <c r="BG6" s="1">
-        <v>0</v>
+      <c r="BG6" s="6">
+        <v>1</v>
       </c>
       <c r="BH6" s="1">
         <v>0</v>
@@ -1834,8 +1910,8 @@
       <c r="BJ6" s="1">
         <v>0</v>
       </c>
-      <c r="BK6" s="1">
-        <v>0</v>
+      <c r="BK6" s="6">
+        <v>1</v>
       </c>
       <c r="BL6" s="1">
         <v>0</v>
@@ -1848,7 +1924,7 @@
       </c>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1">
@@ -1866,11 +1942,11 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -1914,8 +1990,8 @@
       <c r="V7" s="1">
         <v>0</v>
       </c>
-      <c r="W7" s="1">
-        <v>0</v>
+      <c r="W7" s="3">
+        <v>1</v>
       </c>
       <c r="X7" s="1">
         <v>0</v>
@@ -1929,14 +2005,14 @@
       <c r="AA7" s="1">
         <v>0</v>
       </c>
-      <c r="AB7" s="1">
-        <v>0</v>
+      <c r="AB7" s="3">
+        <v>1</v>
       </c>
       <c r="AC7" s="1">
         <v>0</v>
       </c>
-      <c r="AD7" s="1">
-        <v>0</v>
+      <c r="AD7" s="3">
+        <v>1</v>
       </c>
       <c r="AE7" s="1">
         <v>0</v>
@@ -1986,8 +2062,8 @@
       <c r="AT7" s="1">
         <v>0</v>
       </c>
-      <c r="AU7" s="1">
-        <v>0</v>
+      <c r="AU7" s="3">
+        <v>1</v>
       </c>
       <c r="AV7" s="1">
         <v>0</v>
@@ -1995,8 +2071,8 @@
       <c r="AW7" s="1">
         <v>0</v>
       </c>
-      <c r="AX7" s="1">
-        <v>0</v>
+      <c r="AX7" s="3">
+        <v>1</v>
       </c>
       <c r="AY7" s="1">
         <v>0</v>
@@ -2034,21 +2110,21 @@
       <c r="BJ7" s="1">
         <v>0</v>
       </c>
-      <c r="BK7" s="1">
-        <v>0</v>
+      <c r="BK7" s="3">
+        <v>1</v>
       </c>
       <c r="BL7" s="1">
         <v>0</v>
       </c>
-      <c r="BM7" s="1">
-        <v>0</v>
+      <c r="BM7" s="3">
+        <v>1</v>
       </c>
       <c r="BN7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1">
@@ -2066,10 +2142,10 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15">
         <v>0</v>
       </c>
       <c r="I8" s="1">
@@ -2114,8 +2190,8 @@
       <c r="V8" s="1">
         <v>0</v>
       </c>
-      <c r="W8" s="1">
-        <v>0</v>
+      <c r="W8" s="3">
+        <v>1</v>
       </c>
       <c r="X8" s="1">
         <v>0</v>
@@ -2123,20 +2199,20 @@
       <c r="Y8" s="1">
         <v>0</v>
       </c>
-      <c r="Z8" s="1">
-        <v>0</v>
+      <c r="Z8" s="3">
+        <v>1</v>
       </c>
       <c r="AA8" s="1">
         <v>0</v>
       </c>
-      <c r="AB8" s="1">
-        <v>0</v>
+      <c r="AB8" s="3">
+        <v>1</v>
       </c>
       <c r="AC8" s="1">
         <v>0</v>
       </c>
-      <c r="AD8" s="1">
-        <v>0</v>
+      <c r="AD8" s="3">
+        <v>1</v>
       </c>
       <c r="AE8" s="1">
         <v>0</v>
@@ -2186,8 +2262,8 @@
       <c r="AT8" s="1">
         <v>0</v>
       </c>
-      <c r="AU8" s="1">
-        <v>0</v>
+      <c r="AU8" s="3">
+        <v>1</v>
       </c>
       <c r="AV8" s="1">
         <v>0</v>
@@ -2195,8 +2271,8 @@
       <c r="AW8" s="1">
         <v>0</v>
       </c>
-      <c r="AX8" s="1">
-        <v>0</v>
+      <c r="AX8" s="3">
+        <v>1</v>
       </c>
       <c r="AY8" s="1">
         <v>0</v>
@@ -2234,21 +2310,21 @@
       <c r="BJ8" s="1">
         <v>0</v>
       </c>
-      <c r="BK8" s="1">
-        <v>0</v>
+      <c r="BK8" s="3">
+        <v>1</v>
       </c>
       <c r="BL8" s="1">
         <v>0</v>
       </c>
-      <c r="BM8" s="1">
-        <v>0</v>
+      <c r="BM8" s="3">
+        <v>1</v>
       </c>
       <c r="BN8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1">
@@ -2272,7 +2348,7 @@
       <c r="H9" s="1">
         <v>0</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="15">
         <v>0</v>
       </c>
       <c r="J9" s="1">
@@ -2448,7 +2524,7 @@
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1">
@@ -2475,7 +2551,7 @@
       <c r="I10" s="1">
         <v>0</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="15">
         <v>0</v>
       </c>
       <c r="K10" s="1">
@@ -2648,7 +2724,7 @@
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1">
@@ -2678,7 +2754,7 @@
       <c r="J11" s="1">
         <v>0</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="15">
         <v>0</v>
       </c>
       <c r="L11" s="1">
@@ -2702,11 +2778,11 @@
       <c r="R11" s="1">
         <v>0</v>
       </c>
-      <c r="S11" s="1">
-        <v>0</v>
-      </c>
-      <c r="T11" s="1">
-        <v>0</v>
+      <c r="S11" s="8">
+        <v>1</v>
+      </c>
+      <c r="T11" s="6">
+        <v>1</v>
       </c>
       <c r="U11" s="1">
         <v>0</v>
@@ -2747,11 +2823,11 @@
       <c r="AG11" s="1">
         <v>0</v>
       </c>
-      <c r="AH11" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI11" s="1">
-        <v>0</v>
+      <c r="AH11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="7">
+        <v>1</v>
       </c>
       <c r="AJ11" s="1">
         <v>0</v>
@@ -2768,7 +2844,7 @@
       <c r="AN11" s="1">
         <v>0</v>
       </c>
-      <c r="AO11" s="3">
+      <c r="AO11" s="7">
         <v>1</v>
       </c>
       <c r="AP11" s="1">
@@ -2848,7 +2924,7 @@
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1">
@@ -2881,7 +2957,7 @@
       <c r="K12" s="1">
         <v>0</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="15">
         <v>0</v>
       </c>
       <c r="M12" s="1">
@@ -2926,8 +3002,8 @@
       <c r="Z12" s="1">
         <v>0</v>
       </c>
-      <c r="AA12" s="1">
-        <v>0</v>
+      <c r="AA12" s="6">
+        <v>1</v>
       </c>
       <c r="AB12" s="1">
         <v>0</v>
@@ -2935,8 +3011,8 @@
       <c r="AC12" s="1">
         <v>0</v>
       </c>
-      <c r="AD12" s="1">
-        <v>0</v>
+      <c r="AD12" s="6">
+        <v>1</v>
       </c>
       <c r="AE12" s="1">
         <v>0</v>
@@ -2965,8 +3041,8 @@
       <c r="AM12" s="1">
         <v>0</v>
       </c>
-      <c r="AN12" s="1">
-        <v>0</v>
+      <c r="AN12" s="6">
+        <v>1</v>
       </c>
       <c r="AO12" s="1">
         <v>0</v>
@@ -2998,8 +3074,8 @@
       <c r="AX12" s="1">
         <v>0</v>
       </c>
-      <c r="AY12" s="1">
-        <v>0</v>
+      <c r="AY12" s="3">
+        <v>1</v>
       </c>
       <c r="AZ12" s="1">
         <v>0</v>
@@ -3028,8 +3104,8 @@
       <c r="BH12" s="1">
         <v>0</v>
       </c>
-      <c r="BI12" s="1">
-        <v>0</v>
+      <c r="BI12" s="3">
+        <v>1</v>
       </c>
       <c r="BJ12" s="1">
         <v>0</v>
@@ -3048,7 +3124,7 @@
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1">
@@ -3084,7 +3160,7 @@
       <c r="L13" s="1">
         <v>0</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="15">
         <v>0</v>
       </c>
       <c r="N13" s="1">
@@ -3248,7 +3324,7 @@
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1">
@@ -3287,7 +3363,7 @@
       <c r="M14" s="1">
         <v>0</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="15">
         <v>0</v>
       </c>
       <c r="O14" s="1">
@@ -3308,7 +3384,7 @@
       <c r="T14" s="1">
         <v>0</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="5">
         <v>1</v>
       </c>
       <c r="V14" s="1">
@@ -3344,13 +3420,13 @@
       <c r="AF14" s="1">
         <v>0</v>
       </c>
-      <c r="AG14" s="1">
-        <v>0</v>
+      <c r="AG14" s="7">
+        <v>1</v>
       </c>
       <c r="AH14" s="1">
         <v>0</v>
       </c>
-      <c r="AI14" s="3">
+      <c r="AI14" s="7">
         <v>1</v>
       </c>
       <c r="AJ14" s="1">
@@ -3392,8 +3468,8 @@
       <c r="AV14" s="1">
         <v>0</v>
       </c>
-      <c r="AW14" s="1">
-        <v>0</v>
+      <c r="AW14" s="7">
+        <v>1</v>
       </c>
       <c r="AX14" s="1">
         <v>0</v>
@@ -3413,8 +3489,8 @@
       <c r="BC14" s="1">
         <v>0</v>
       </c>
-      <c r="BD14" s="1">
-        <v>0</v>
+      <c r="BD14" s="7">
+        <v>1</v>
       </c>
       <c r="BE14" s="1">
         <v>0</v>
@@ -3434,8 +3510,8 @@
       <c r="BJ14" s="1">
         <v>0</v>
       </c>
-      <c r="BK14" s="1">
-        <v>0</v>
+      <c r="BK14" s="7">
+        <v>1</v>
       </c>
       <c r="BL14" s="1">
         <v>0</v>
@@ -3448,7 +3524,7 @@
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1">
@@ -3460,8 +3536,8 @@
       <c r="D15" s="1">
         <v>0</v>
       </c>
-      <c r="E15" s="1">
-        <v>0</v>
+      <c r="E15" s="8">
+        <v>1</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -3490,7 +3566,7 @@
       <c r="N15" s="1">
         <v>0</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="15">
         <v>0</v>
       </c>
       <c r="P15" s="1">
@@ -3648,7 +3724,7 @@
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1">
@@ -3693,7 +3769,7 @@
       <c r="O16" s="1">
         <v>0</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="15">
         <v>0</v>
       </c>
       <c r="Q16" s="1">
@@ -3711,8 +3787,8 @@
       <c r="U16" s="1">
         <v>0</v>
       </c>
-      <c r="V16" s="1">
-        <v>0</v>
+      <c r="V16" s="8">
+        <v>1</v>
       </c>
       <c r="W16" s="1">
         <v>0</v>
@@ -3759,8 +3835,8 @@
       <c r="AK16" s="1">
         <v>0</v>
       </c>
-      <c r="AL16" s="1">
-        <v>0</v>
+      <c r="AL16" s="8">
+        <v>1</v>
       </c>
       <c r="AM16" s="1">
         <v>0</v>
@@ -3798,8 +3874,8 @@
       <c r="AX16" s="1">
         <v>0</v>
       </c>
-      <c r="AY16" s="1">
-        <v>0</v>
+      <c r="AY16" s="8">
+        <v>1</v>
       </c>
       <c r="AZ16" s="1">
         <v>0</v>
@@ -3822,8 +3898,8 @@
       <c r="BF16" s="1">
         <v>0</v>
       </c>
-      <c r="BG16" s="1">
-        <v>0</v>
+      <c r="BG16" s="6">
+        <v>1</v>
       </c>
       <c r="BH16" s="1">
         <v>0</v>
@@ -3848,7 +3924,7 @@
       </c>
     </row>
     <row r="17" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="1">
@@ -3896,7 +3972,7 @@
       <c r="P17" s="1">
         <v>0</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="15">
         <v>0</v>
       </c>
       <c r="R17" s="1">
@@ -3977,8 +4053,8 @@
       <c r="AQ17" s="1">
         <v>0</v>
       </c>
-      <c r="AR17" s="1">
-        <v>0</v>
+      <c r="AR17" s="4">
+        <v>1</v>
       </c>
       <c r="AS17" s="1">
         <v>0</v>
@@ -3989,8 +4065,8 @@
       <c r="AU17" s="1">
         <v>0</v>
       </c>
-      <c r="AV17" s="1">
-        <v>0</v>
+      <c r="AV17" s="6">
+        <v>1</v>
       </c>
       <c r="AW17" s="1">
         <v>0</v>
@@ -4048,7 +4124,7 @@
       </c>
     </row>
     <row r="18" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="1">
@@ -4099,7 +4175,7 @@
       <c r="Q18" s="1">
         <v>0</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="15">
         <v>0</v>
       </c>
       <c r="S18" s="1">
@@ -4248,7 +4324,7 @@
       </c>
     </row>
     <row r="19" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1">
@@ -4278,8 +4354,8 @@
       <c r="J19" s="1">
         <v>0</v>
       </c>
-      <c r="K19" s="1">
-        <v>0</v>
+      <c r="K19" s="8">
+        <v>1</v>
       </c>
       <c r="L19" s="1">
         <v>0</v>
@@ -4302,7 +4378,7 @@
       <c r="R19" s="1">
         <v>0</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="15">
         <v>0</v>
       </c>
       <c r="T19" s="1">
@@ -4347,8 +4423,8 @@
       <c r="AG19" s="1">
         <v>0</v>
       </c>
-      <c r="AH19" s="1">
-        <v>0</v>
+      <c r="AH19" s="6">
+        <v>1</v>
       </c>
       <c r="AI19" s="1">
         <v>0</v>
@@ -4359,7 +4435,7 @@
       <c r="AK19" s="1">
         <v>0</v>
       </c>
-      <c r="AL19" s="4">
+      <c r="AL19" s="9">
         <v>1</v>
       </c>
       <c r="AM19" s="1">
@@ -4395,8 +4471,8 @@
       <c r="AW19" s="1">
         <v>0</v>
       </c>
-      <c r="AX19" s="1">
-        <v>0</v>
+      <c r="AX19" s="6">
+        <v>1</v>
       </c>
       <c r="AY19" s="1">
         <v>0</v>
@@ -4443,12 +4519,12 @@
       <c r="BM19" s="1">
         <v>0</v>
       </c>
-      <c r="BN19" s="3">
+      <c r="BN19" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="1">
@@ -4478,8 +4554,8 @@
       <c r="J20" s="1">
         <v>0</v>
       </c>
-      <c r="K20" s="1">
-        <v>0</v>
+      <c r="K20" s="6">
+        <v>1</v>
       </c>
       <c r="L20" s="1">
         <v>0</v>
@@ -4505,14 +4581,14 @@
       <c r="S20" s="1">
         <v>0</v>
       </c>
-      <c r="T20" s="1">
+      <c r="T20" s="15">
         <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>0</v>
       </c>
-      <c r="V20" s="1">
-        <v>0</v>
+      <c r="V20" s="8">
+        <v>1</v>
       </c>
       <c r="W20" s="1">
         <v>0</v>
@@ -4559,8 +4635,8 @@
       <c r="AK20" s="1">
         <v>0</v>
       </c>
-      <c r="AL20" s="1">
-        <v>0</v>
+      <c r="AL20" s="8">
+        <v>1</v>
       </c>
       <c r="AM20" s="1">
         <v>0</v>
@@ -4598,8 +4674,8 @@
       <c r="AX20" s="1">
         <v>0</v>
       </c>
-      <c r="AY20" s="1">
-        <v>0</v>
+      <c r="AY20" s="8">
+        <v>1</v>
       </c>
       <c r="AZ20" s="1">
         <v>0</v>
@@ -4648,7 +4724,7 @@
       </c>
     </row>
     <row r="21" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="1">
@@ -4687,7 +4763,7 @@
       <c r="M21" s="1">
         <v>0</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="5">
         <v>1</v>
       </c>
       <c r="O21" s="1">
@@ -4708,7 +4784,7 @@
       <c r="T21" s="1">
         <v>0</v>
       </c>
-      <c r="U21" s="5">
+      <c r="U21" s="15">
         <v>0</v>
       </c>
       <c r="V21" s="1">
@@ -4840,15 +4916,15 @@
       <c r="BL21" s="1">
         <v>0</v>
       </c>
-      <c r="BM21" s="1">
-        <v>0</v>
+      <c r="BM21" s="6">
+        <v>1</v>
       </c>
       <c r="BN21" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1">
@@ -4893,8 +4969,8 @@
       <c r="O22" s="1">
         <v>0</v>
       </c>
-      <c r="P22" s="1">
-        <v>0</v>
+      <c r="P22" s="8">
+        <v>1</v>
       </c>
       <c r="Q22" s="1">
         <v>0</v>
@@ -4905,13 +4981,13 @@
       <c r="S22" s="1">
         <v>0</v>
       </c>
-      <c r="T22" s="1">
-        <v>0</v>
+      <c r="T22" s="8">
+        <v>1</v>
       </c>
       <c r="U22" s="1">
         <v>0</v>
       </c>
-      <c r="V22" s="5">
+      <c r="V22" s="15">
         <v>0</v>
       </c>
       <c r="W22" s="1">
@@ -4959,8 +5035,8 @@
       <c r="AK22" s="1">
         <v>0</v>
       </c>
-      <c r="AL22" s="1">
-        <v>0</v>
+      <c r="AL22" s="8">
+        <v>1</v>
       </c>
       <c r="AM22" s="1">
         <v>0</v>
@@ -4998,8 +5074,8 @@
       <c r="AX22" s="1">
         <v>0</v>
       </c>
-      <c r="AY22" s="1">
-        <v>0</v>
+      <c r="AY22" s="8">
+        <v>1</v>
       </c>
       <c r="AZ22" s="1">
         <v>0</v>
@@ -5048,7 +5124,7 @@
       </c>
     </row>
     <row r="23" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="1">
@@ -5060,17 +5136,17 @@
       <c r="D23" s="1">
         <v>0</v>
       </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
+      <c r="E23" s="8">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
@@ -5114,29 +5190,29 @@
       <c r="V23" s="1">
         <v>0</v>
       </c>
-      <c r="W23" s="5">
+      <c r="W23" s="15">
         <v>0</v>
       </c>
       <c r="X23" s="1">
         <v>0</v>
       </c>
-      <c r="Y23" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="1">
-        <v>0</v>
+      <c r="Y23" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>1</v>
       </c>
       <c r="AA23" s="1">
         <v>0</v>
       </c>
-      <c r="AB23" s="1">
-        <v>0</v>
+      <c r="AB23" s="3">
+        <v>1</v>
       </c>
       <c r="AC23" s="1">
         <v>0</v>
       </c>
-      <c r="AD23" s="1">
-        <v>0</v>
+      <c r="AD23" s="6">
+        <v>1</v>
       </c>
       <c r="AE23" s="1">
         <v>0</v>
@@ -5186,8 +5262,8 @@
       <c r="AT23" s="1">
         <v>0</v>
       </c>
-      <c r="AU23" s="1">
-        <v>0</v>
+      <c r="AU23" s="3">
+        <v>1</v>
       </c>
       <c r="AV23" s="1">
         <v>0</v>
@@ -5195,8 +5271,8 @@
       <c r="AW23" s="1">
         <v>0</v>
       </c>
-      <c r="AX23" s="1">
-        <v>0</v>
+      <c r="AX23" s="3">
+        <v>1</v>
       </c>
       <c r="AY23" s="1">
         <v>0</v>
@@ -5234,21 +5310,21 @@
       <c r="BJ23" s="1">
         <v>0</v>
       </c>
-      <c r="BK23" s="1">
-        <v>0</v>
+      <c r="BK23" s="3">
+        <v>1</v>
       </c>
       <c r="BL23" s="1">
         <v>0</v>
       </c>
-      <c r="BM23" s="1">
-        <v>0</v>
+      <c r="BM23" s="3">
+        <v>1</v>
       </c>
       <c r="BN23" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="1">
@@ -5317,7 +5393,7 @@
       <c r="W24" s="1">
         <v>0</v>
       </c>
-      <c r="X24" s="1">
+      <c r="X24" s="15">
         <v>0</v>
       </c>
       <c r="Y24" s="1">
@@ -5440,15 +5516,15 @@
       <c r="BL24" s="1">
         <v>0</v>
       </c>
-      <c r="BM24" s="1">
-        <v>0</v>
+      <c r="BM24" s="6">
+        <v>1</v>
       </c>
       <c r="BN24" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="1">
@@ -5460,11 +5536,11 @@
       <c r="D25" s="1">
         <v>0</v>
       </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
+      <c r="E25" s="8">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8">
+        <v>1</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -5514,20 +5590,20 @@
       <c r="V25" s="1">
         <v>0</v>
       </c>
-      <c r="W25" s="1">
-        <v>0</v>
+      <c r="W25" s="8">
+        <v>1</v>
       </c>
       <c r="X25" s="1">
         <v>0</v>
       </c>
-      <c r="Y25" s="5">
+      <c r="Y25" s="10">
         <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>0</v>
       </c>
-      <c r="AA25" s="1">
-        <v>0</v>
+      <c r="AA25" s="6">
+        <v>1</v>
       </c>
       <c r="AB25" s="1">
         <v>0</v>
@@ -5535,8 +5611,8 @@
       <c r="AC25" s="1">
         <v>0</v>
       </c>
-      <c r="AD25" s="1">
-        <v>0</v>
+      <c r="AD25" s="5">
+        <v>1</v>
       </c>
       <c r="AE25" s="1">
         <v>0</v>
@@ -5586,8 +5662,8 @@
       <c r="AT25" s="1">
         <v>0</v>
       </c>
-      <c r="AU25" s="1">
-        <v>0</v>
+      <c r="AU25" s="6">
+        <v>1</v>
       </c>
       <c r="AV25" s="1">
         <v>0</v>
@@ -5598,8 +5674,8 @@
       <c r="AX25" s="1">
         <v>0</v>
       </c>
-      <c r="AY25" s="1">
-        <v>0</v>
+      <c r="AY25" s="3">
+        <v>1</v>
       </c>
       <c r="AZ25" s="1">
         <v>0</v>
@@ -5622,33 +5698,33 @@
       <c r="BF25" s="1">
         <v>0</v>
       </c>
-      <c r="BG25" s="3">
+      <c r="BG25" s="6">
         <v>1</v>
       </c>
       <c r="BH25" s="1">
         <v>0</v>
       </c>
-      <c r="BI25" s="1">
-        <v>0</v>
+      <c r="BI25" s="6">
+        <v>1</v>
       </c>
       <c r="BJ25" s="1">
         <v>0</v>
       </c>
-      <c r="BK25" s="1">
-        <v>0</v>
+      <c r="BK25" s="6">
+        <v>1</v>
       </c>
       <c r="BL25" s="1">
         <v>0</v>
       </c>
-      <c r="BM25" s="1">
-        <v>0</v>
+      <c r="BM25" s="3">
+        <v>1</v>
       </c>
       <c r="BN25" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="1">
@@ -5669,8 +5745,8 @@
       <c r="G26" s="3">
         <v>1</v>
       </c>
-      <c r="H26" s="1">
-        <v>0</v>
+      <c r="H26" s="3">
+        <v>1</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
@@ -5714,8 +5790,8 @@
       <c r="V26" s="1">
         <v>0</v>
       </c>
-      <c r="W26" s="1">
-        <v>0</v>
+      <c r="W26" s="3">
+        <v>1</v>
       </c>
       <c r="X26" s="1">
         <v>0</v>
@@ -5723,20 +5799,20 @@
       <c r="Y26" s="1">
         <v>0</v>
       </c>
-      <c r="Z26" s="5">
+      <c r="Z26" s="10">
         <v>0</v>
       </c>
       <c r="AA26" s="1">
         <v>0</v>
       </c>
-      <c r="AB26" s="1">
-        <v>0</v>
+      <c r="AB26" s="3">
+        <v>1</v>
       </c>
       <c r="AC26" s="1">
         <v>0</v>
       </c>
-      <c r="AD26" s="1">
-        <v>0</v>
+      <c r="AD26" s="3">
+        <v>1</v>
       </c>
       <c r="AE26" s="1">
         <v>0</v>
@@ -5786,8 +5862,8 @@
       <c r="AT26" s="1">
         <v>0</v>
       </c>
-      <c r="AU26" s="1">
-        <v>0</v>
+      <c r="AU26" s="3">
+        <v>1</v>
       </c>
       <c r="AV26" s="1">
         <v>0</v>
@@ -5795,8 +5871,8 @@
       <c r="AW26" s="1">
         <v>0</v>
       </c>
-      <c r="AX26" s="1">
-        <v>0</v>
+      <c r="AX26" s="3">
+        <v>1</v>
       </c>
       <c r="AY26" s="1">
         <v>0</v>
@@ -5834,21 +5910,21 @@
       <c r="BJ26" s="1">
         <v>0</v>
       </c>
-      <c r="BK26" s="1">
-        <v>0</v>
+      <c r="BK26" s="3">
+        <v>1</v>
       </c>
       <c r="BL26" s="1">
         <v>0</v>
       </c>
-      <c r="BM26" s="1">
-        <v>0</v>
+      <c r="BM26" s="3">
+        <v>1</v>
       </c>
       <c r="BN26" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="1">
@@ -5860,8 +5936,8 @@
       <c r="D27" s="1">
         <v>0</v>
       </c>
-      <c r="E27" s="1">
-        <v>0</v>
+      <c r="E27" s="5">
+        <v>1</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -5881,8 +5957,8 @@
       <c r="K27" s="1">
         <v>0</v>
       </c>
-      <c r="L27" s="1">
-        <v>0</v>
+      <c r="L27" s="6">
+        <v>1</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -5920,13 +5996,13 @@
       <c r="X27" s="1">
         <v>0</v>
       </c>
-      <c r="Y27" s="1">
-        <v>0</v>
+      <c r="Y27" s="6">
+        <v>1</v>
       </c>
       <c r="Z27" s="1">
         <v>0</v>
       </c>
-      <c r="AA27" s="5">
+      <c r="AA27" s="10">
         <v>0</v>
       </c>
       <c r="AB27" s="1">
@@ -5935,8 +6011,8 @@
       <c r="AC27" s="1">
         <v>0</v>
       </c>
-      <c r="AD27" s="1">
-        <v>0</v>
+      <c r="AD27" s="5">
+        <v>1</v>
       </c>
       <c r="AE27" s="1">
         <v>0</v>
@@ -5965,8 +6041,8 @@
       <c r="AM27" s="1">
         <v>0</v>
       </c>
-      <c r="AN27" s="1">
-        <v>0</v>
+      <c r="AN27" s="6">
+        <v>1</v>
       </c>
       <c r="AO27" s="1">
         <v>0</v>
@@ -5986,8 +6062,8 @@
       <c r="AT27" s="1">
         <v>0</v>
       </c>
-      <c r="AU27" s="1">
-        <v>0</v>
+      <c r="AU27" s="6">
+        <v>1</v>
       </c>
       <c r="AV27" s="1">
         <v>0</v>
@@ -5998,8 +6074,8 @@
       <c r="AX27" s="1">
         <v>0</v>
       </c>
-      <c r="AY27" s="1">
-        <v>0</v>
+      <c r="AY27" s="3">
+        <v>1</v>
       </c>
       <c r="AZ27" s="1">
         <v>0</v>
@@ -6028,8 +6104,8 @@
       <c r="BH27" s="1">
         <v>0</v>
       </c>
-      <c r="BI27" s="1">
-        <v>0</v>
+      <c r="BI27" s="3">
+        <v>1</v>
       </c>
       <c r="BJ27" s="1">
         <v>0</v>
@@ -6048,7 +6124,7 @@
       </c>
     </row>
     <row r="28" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="1">
@@ -6066,11 +6142,11 @@
       <c r="F28" s="1">
         <v>0</v>
       </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
@@ -6114,8 +6190,8 @@
       <c r="V28" s="1">
         <v>0</v>
       </c>
-      <c r="W28" s="1">
-        <v>0</v>
+      <c r="W28" s="3">
+        <v>1</v>
       </c>
       <c r="X28" s="1">
         <v>0</v>
@@ -6123,20 +6199,20 @@
       <c r="Y28" s="1">
         <v>0</v>
       </c>
-      <c r="Z28" s="1">
-        <v>0</v>
+      <c r="Z28" s="3">
+        <v>1</v>
       </c>
       <c r="AA28" s="1">
         <v>0</v>
       </c>
-      <c r="AB28" s="5">
+      <c r="AB28" s="10">
         <v>0</v>
       </c>
       <c r="AC28" s="1">
         <v>0</v>
       </c>
-      <c r="AD28" s="1">
-        <v>0</v>
+      <c r="AD28" s="3">
+        <v>1</v>
       </c>
       <c r="AE28" s="1">
         <v>0</v>
@@ -6186,8 +6262,8 @@
       <c r="AT28" s="1">
         <v>0</v>
       </c>
-      <c r="AU28" s="1">
-        <v>0</v>
+      <c r="AU28" s="3">
+        <v>1</v>
       </c>
       <c r="AV28" s="1">
         <v>0</v>
@@ -6195,8 +6271,8 @@
       <c r="AW28" s="1">
         <v>0</v>
       </c>
-      <c r="AX28" s="1">
-        <v>0</v>
+      <c r="AX28" s="3">
+        <v>1</v>
       </c>
       <c r="AY28" s="1">
         <v>0</v>
@@ -6234,21 +6310,21 @@
       <c r="BJ28" s="1">
         <v>0</v>
       </c>
-      <c r="BK28" s="1">
-        <v>0</v>
+      <c r="BK28" s="3">
+        <v>1</v>
       </c>
       <c r="BL28" s="1">
         <v>0</v>
       </c>
-      <c r="BM28" s="1">
-        <v>0</v>
+      <c r="BM28" s="3">
+        <v>1</v>
       </c>
       <c r="BN28" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="1">
@@ -6332,11 +6408,11 @@
       <c r="AB29" s="1">
         <v>0</v>
       </c>
-      <c r="AC29" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="1">
-        <v>0</v>
+      <c r="AC29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="5">
+        <v>1</v>
       </c>
       <c r="AE29" s="1">
         <v>0</v>
@@ -6448,7 +6524,7 @@
       </c>
     </row>
     <row r="30" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="1">
@@ -6460,17 +6536,17 @@
       <c r="D30" s="1">
         <v>0</v>
       </c>
-      <c r="E30" s="1">
-        <v>0</v>
+      <c r="E30" s="5">
+        <v>1</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
       </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0</v>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1</v>
       </c>
       <c r="I30" s="1">
         <v>0</v>
@@ -6481,8 +6557,8 @@
       <c r="K30" s="1">
         <v>0</v>
       </c>
-      <c r="L30" s="1">
-        <v>0</v>
+      <c r="L30" s="6">
+        <v>1</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -6514,28 +6590,28 @@
       <c r="V30" s="1">
         <v>0</v>
       </c>
-      <c r="W30" s="1">
-        <v>0</v>
+      <c r="W30" s="6">
+        <v>1</v>
       </c>
       <c r="X30" s="1">
         <v>0</v>
       </c>
-      <c r="Y30" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="1">
-        <v>0</v>
+      <c r="Y30" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>1</v>
       </c>
       <c r="AC30" s="1">
         <v>0</v>
       </c>
-      <c r="AD30" s="5">
+      <c r="AD30" s="10">
         <v>0</v>
       </c>
       <c r="AE30" s="1">
@@ -6586,8 +6662,8 @@
       <c r="AT30" s="1">
         <v>0</v>
       </c>
-      <c r="AU30" s="1">
-        <v>0</v>
+      <c r="AU30" s="6">
+        <v>1</v>
       </c>
       <c r="AV30" s="1">
         <v>0</v>
@@ -6595,8 +6671,8 @@
       <c r="AW30" s="1">
         <v>0</v>
       </c>
-      <c r="AX30" s="1">
-        <v>0</v>
+      <c r="AX30" s="3">
+        <v>1</v>
       </c>
       <c r="AY30" s="1">
         <v>0</v>
@@ -6634,21 +6710,21 @@
       <c r="BJ30" s="1">
         <v>0</v>
       </c>
-      <c r="BK30" s="1">
-        <v>0</v>
+      <c r="BK30" s="3">
+        <v>1</v>
       </c>
       <c r="BL30" s="1">
         <v>0</v>
       </c>
-      <c r="BM30" s="1">
-        <v>0</v>
+      <c r="BM30" s="3">
+        <v>1</v>
       </c>
       <c r="BN30" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="1">
@@ -6738,7 +6814,7 @@
       <c r="AD31" s="1">
         <v>0</v>
       </c>
-      <c r="AE31" s="5">
+      <c r="AE31" s="10">
         <v>0</v>
       </c>
       <c r="AF31" s="1">
@@ -6848,7 +6924,7 @@
       </c>
     </row>
     <row r="32" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="1">
@@ -6941,10 +7017,10 @@
       <c r="AE32" s="1">
         <v>0</v>
       </c>
-      <c r="AF32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="3">
+      <c r="AF32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="5">
         <v>1</v>
       </c>
       <c r="AH32" s="1">
@@ -7048,7 +7124,7 @@
       </c>
     </row>
     <row r="33" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="1">
@@ -7057,8 +7133,8 @@
       <c r="C33" s="1">
         <v>0</v>
       </c>
-      <c r="D33" s="1">
-        <v>0</v>
+      <c r="D33" s="2">
+        <v>1</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -7087,8 +7163,8 @@
       <c r="M33" s="1">
         <v>0</v>
       </c>
-      <c r="N33" s="1">
-        <v>0</v>
+      <c r="N33" s="7">
+        <v>1</v>
       </c>
       <c r="O33" s="1">
         <v>0</v>
@@ -7141,10 +7217,10 @@
       <c r="AE33" s="1">
         <v>0</v>
       </c>
-      <c r="AF33" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG33" s="5">
+      <c r="AF33" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG33" s="10">
         <v>0</v>
       </c>
       <c r="AH33" s="1">
@@ -7165,7 +7241,7 @@
       <c r="AM33" s="1">
         <v>0</v>
       </c>
-      <c r="AN33" s="3">
+      <c r="AN33" s="5">
         <v>1</v>
       </c>
       <c r="AO33" s="1">
@@ -7195,7 +7271,7 @@
       <c r="AW33" s="1">
         <v>0</v>
       </c>
-      <c r="AX33" s="3">
+      <c r="AX33" s="5">
         <v>1</v>
       </c>
       <c r="AY33" s="1">
@@ -7216,8 +7292,8 @@
       <c r="BD33" s="1">
         <v>0</v>
       </c>
-      <c r="BE33" s="1">
-        <v>0</v>
+      <c r="BE33" s="6">
+        <v>1</v>
       </c>
       <c r="BF33" s="1">
         <v>0</v>
@@ -7248,7 +7324,7 @@
       </c>
     </row>
     <row r="34" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="1">
@@ -7278,7 +7354,7 @@
       <c r="J34" s="1">
         <v>0</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="5">
         <v>1</v>
       </c>
       <c r="L34" s="1">
@@ -7302,8 +7378,8 @@
       <c r="R34" s="1">
         <v>0</v>
       </c>
-      <c r="S34" s="1">
-        <v>0</v>
+      <c r="S34" s="6">
+        <v>1</v>
       </c>
       <c r="T34" s="1">
         <v>0</v>
@@ -7347,7 +7423,7 @@
       <c r="AG34" s="1">
         <v>0</v>
       </c>
-      <c r="AH34" s="5">
+      <c r="AH34" s="10">
         <v>0</v>
       </c>
       <c r="AI34" s="1">
@@ -7428,14 +7504,14 @@
       <c r="BH34" s="1">
         <v>0</v>
       </c>
-      <c r="BI34" s="3">
+      <c r="BI34" s="6">
         <v>1</v>
       </c>
       <c r="BJ34" s="1">
         <v>0</v>
       </c>
-      <c r="BK34" s="1">
-        <v>0</v>
+      <c r="BK34" s="6">
+        <v>1</v>
       </c>
       <c r="BL34" s="1">
         <v>0</v>
@@ -7448,7 +7524,7 @@
       </c>
     </row>
     <row r="35" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="1">
@@ -7478,8 +7554,8 @@
       <c r="J35" s="1">
         <v>0</v>
       </c>
-      <c r="K35" s="1">
-        <v>0</v>
+      <c r="K35" s="7">
+        <v>1</v>
       </c>
       <c r="L35" s="1">
         <v>0</v>
@@ -7487,7 +7563,7 @@
       <c r="M35" s="1">
         <v>0</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="7">
         <v>1</v>
       </c>
       <c r="O35" s="1">
@@ -7550,7 +7626,7 @@
       <c r="AH35" s="1">
         <v>0</v>
       </c>
-      <c r="AI35" s="5">
+      <c r="AI35" s="10">
         <v>0</v>
       </c>
       <c r="AJ35" s="1">
@@ -7568,11 +7644,11 @@
       <c r="AN35" s="1">
         <v>0</v>
       </c>
-      <c r="AO35" s="3">
-        <v>1</v>
-      </c>
-      <c r="AP35" s="1">
-        <v>0</v>
+      <c r="AO35" s="11">
+        <v>1</v>
+      </c>
+      <c r="AP35" s="11">
+        <v>1</v>
       </c>
       <c r="AQ35" s="1">
         <v>0</v>
@@ -7598,8 +7674,8 @@
       <c r="AX35" s="1">
         <v>0</v>
       </c>
-      <c r="AY35" s="1">
-        <v>0</v>
+      <c r="AY35" s="11">
+        <v>1</v>
       </c>
       <c r="AZ35" s="1">
         <v>0</v>
@@ -7628,10 +7704,10 @@
       <c r="BH35" s="1">
         <v>0</v>
       </c>
-      <c r="BI35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ35" s="3">
+      <c r="BI35" s="7">
+        <v>1</v>
+      </c>
+      <c r="BJ35" s="7">
         <v>1</v>
       </c>
       <c r="BK35" s="1">
@@ -7648,7 +7724,7 @@
       </c>
     </row>
     <row r="36" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="1">
@@ -7753,7 +7829,7 @@
       <c r="AI36" s="1">
         <v>0</v>
       </c>
-      <c r="AJ36" s="5">
+      <c r="AJ36" s="10">
         <v>0</v>
       </c>
       <c r="AK36" s="1">
@@ -7848,7 +7924,7 @@
       </c>
     </row>
     <row r="37" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="1">
@@ -7956,7 +8032,7 @@
       <c r="AJ37" s="1">
         <v>0</v>
       </c>
-      <c r="AK37" s="5">
+      <c r="AK37" s="10">
         <v>0</v>
       </c>
       <c r="AL37" s="1">
@@ -8048,7 +8124,7 @@
       </c>
     </row>
     <row r="38" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="1">
@@ -8093,8 +8169,8 @@
       <c r="O38" s="1">
         <v>0</v>
       </c>
-      <c r="P38" s="1">
-        <v>0</v>
+      <c r="P38" s="8">
+        <v>1</v>
       </c>
       <c r="Q38" s="1">
         <v>0</v>
@@ -8102,17 +8178,17 @@
       <c r="R38" s="1">
         <v>0</v>
       </c>
-      <c r="S38" s="4">
-        <v>1</v>
-      </c>
-      <c r="T38" s="1">
-        <v>0</v>
+      <c r="S38" s="9">
+        <v>1</v>
+      </c>
+      <c r="T38" s="8">
+        <v>1</v>
       </c>
       <c r="U38" s="1">
         <v>0</v>
       </c>
-      <c r="V38" s="1">
-        <v>0</v>
+      <c r="V38" s="8">
+        <v>1</v>
       </c>
       <c r="W38" s="1">
         <v>0</v>
@@ -8159,7 +8235,7 @@
       <c r="AK38" s="1">
         <v>0</v>
       </c>
-      <c r="AL38" s="5">
+      <c r="AL38" s="10">
         <v>0</v>
       </c>
       <c r="AM38" s="1">
@@ -8198,8 +8274,8 @@
       <c r="AX38" s="1">
         <v>0</v>
       </c>
-      <c r="AY38" s="1">
-        <v>0</v>
+      <c r="AY38" s="8">
+        <v>1</v>
       </c>
       <c r="AZ38" s="1">
         <v>0</v>
@@ -8248,7 +8324,7 @@
       </c>
     </row>
     <row r="39" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="1">
@@ -8362,7 +8438,7 @@
       <c r="AL39" s="1">
         <v>0</v>
       </c>
-      <c r="AM39" s="5">
+      <c r="AM39" s="10">
         <v>0</v>
       </c>
       <c r="AN39" s="1">
@@ -8448,7 +8524,7 @@
       </c>
     </row>
     <row r="40" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="1">
@@ -8457,8 +8533,8 @@
       <c r="C40" s="1">
         <v>0</v>
       </c>
-      <c r="D40" s="1">
-        <v>0</v>
+      <c r="D40" s="17">
+        <v>1</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -8481,8 +8557,8 @@
       <c r="K40" s="1">
         <v>0</v>
       </c>
-      <c r="L40" s="1">
-        <v>0</v>
+      <c r="L40" s="6">
+        <v>1</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -8526,8 +8602,8 @@
       <c r="Z40" s="1">
         <v>0</v>
       </c>
-      <c r="AA40" s="1">
-        <v>0</v>
+      <c r="AA40" s="6">
+        <v>1</v>
       </c>
       <c r="AB40" s="1">
         <v>0</v>
@@ -8544,7 +8620,7 @@
       <c r="AF40" s="1">
         <v>0</v>
       </c>
-      <c r="AG40" s="3">
+      <c r="AG40" s="5">
         <v>1</v>
       </c>
       <c r="AH40" s="1">
@@ -8565,7 +8641,7 @@
       <c r="AM40" s="1">
         <v>0</v>
       </c>
-      <c r="AN40" s="5">
+      <c r="AN40" s="10">
         <v>0</v>
       </c>
       <c r="AO40" s="1">
@@ -8595,11 +8671,11 @@
       <c r="AW40" s="1">
         <v>0</v>
       </c>
-      <c r="AX40" s="3">
-        <v>1</v>
-      </c>
-      <c r="AY40" s="1">
-        <v>0</v>
+      <c r="AX40" s="5">
+        <v>1</v>
+      </c>
+      <c r="AY40" s="3">
+        <v>1</v>
       </c>
       <c r="AZ40" s="1">
         <v>0</v>
@@ -8628,8 +8704,8 @@
       <c r="BH40" s="1">
         <v>0</v>
       </c>
-      <c r="BI40" s="1">
-        <v>0</v>
+      <c r="BI40" s="3">
+        <v>1</v>
       </c>
       <c r="BJ40" s="1">
         <v>0</v>
@@ -8643,12 +8719,12 @@
       <c r="BM40" s="1">
         <v>0</v>
       </c>
-      <c r="BN40" s="1">
-        <v>0</v>
+      <c r="BN40" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="1">
@@ -8678,7 +8754,7 @@
       <c r="J41" s="1">
         <v>0</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="7">
         <v>1</v>
       </c>
       <c r="L41" s="1">
@@ -8750,7 +8826,7 @@
       <c r="AH41" s="1">
         <v>0</v>
       </c>
-      <c r="AI41" s="3">
+      <c r="AI41" s="7">
         <v>1</v>
       </c>
       <c r="AJ41" s="1">
@@ -8768,11 +8844,11 @@
       <c r="AN41" s="1">
         <v>0</v>
       </c>
-      <c r="AO41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP41" s="1">
-        <v>0</v>
+      <c r="AO41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP41" s="11">
+        <v>1</v>
       </c>
       <c r="AQ41" s="1">
         <v>0</v>
@@ -8848,7 +8924,7 @@
       </c>
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="14" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="1">
@@ -8968,10 +9044,10 @@
       <c r="AN42" s="1">
         <v>0</v>
       </c>
-      <c r="AO42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP42" s="5">
+      <c r="AO42" s="11">
+        <v>1</v>
+      </c>
+      <c r="AP42" s="10">
         <v>0</v>
       </c>
       <c r="AQ42" s="1">
@@ -9048,7 +9124,7 @@
       </c>
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="1">
@@ -9174,7 +9250,7 @@
       <c r="AP43" s="1">
         <v>0</v>
       </c>
-      <c r="AQ43" s="5">
+      <c r="AQ43" s="10">
         <v>0</v>
       </c>
       <c r="AR43" s="1">
@@ -9219,7 +9295,7 @@
       <c r="BE43" s="1">
         <v>0</v>
       </c>
-      <c r="BF43" s="3">
+      <c r="BF43" s="5">
         <v>1</v>
       </c>
       <c r="BG43" s="1">
@@ -9248,7 +9324,7 @@
       </c>
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="1">
@@ -9257,8 +9333,8 @@
       <c r="C44" s="1">
         <v>0</v>
       </c>
-      <c r="D44" s="1">
-        <v>0</v>
+      <c r="D44" s="2">
+        <v>1</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -9296,8 +9372,8 @@
       <c r="P44" s="1">
         <v>0</v>
       </c>
-      <c r="Q44" s="1">
-        <v>0</v>
+      <c r="Q44" s="4">
+        <v>1</v>
       </c>
       <c r="R44" s="1">
         <v>0</v>
@@ -9377,7 +9453,7 @@
       <c r="AQ44" s="1">
         <v>0</v>
       </c>
-      <c r="AR44" s="5">
+      <c r="AR44" s="10">
         <v>0</v>
       </c>
       <c r="AS44" s="1">
@@ -9448,7 +9524,7 @@
       </c>
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="1">
@@ -9580,7 +9656,7 @@
       <c r="AR45" s="1">
         <v>0</v>
       </c>
-      <c r="AS45" s="5">
+      <c r="AS45" s="10">
         <v>0</v>
       </c>
       <c r="AT45" s="1">
@@ -9648,7 +9724,7 @@
       </c>
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="1">
@@ -9783,7 +9859,7 @@
       <c r="AS46" s="1">
         <v>0</v>
       </c>
-      <c r="AT46" s="5">
+      <c r="AT46" s="10">
         <v>0</v>
       </c>
       <c r="AU46" s="1">
@@ -9848,7 +9924,7 @@
       </c>
     </row>
     <row r="47" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="1">
@@ -9860,17 +9936,17 @@
       <c r="D47" s="1">
         <v>0</v>
       </c>
-      <c r="E47" s="1">
-        <v>0</v>
+      <c r="E47" s="5">
+        <v>1</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
       </c>
-      <c r="G47" s="1">
-        <v>0</v>
-      </c>
-      <c r="H47" s="1">
-        <v>0</v>
+      <c r="G47" s="3">
+        <v>1</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1</v>
       </c>
       <c r="I47" s="1">
         <v>0</v>
@@ -9914,29 +9990,29 @@
       <c r="V47" s="1">
         <v>0</v>
       </c>
-      <c r="W47" s="1">
-        <v>0</v>
+      <c r="W47" s="3">
+        <v>1</v>
       </c>
       <c r="X47" s="1">
         <v>0</v>
       </c>
-      <c r="Y47" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="1">
-        <v>0</v>
+      <c r="Y47" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>1</v>
       </c>
       <c r="AC47" s="1">
         <v>0</v>
       </c>
-      <c r="AD47" s="1">
-        <v>0</v>
+      <c r="AD47" s="6">
+        <v>1</v>
       </c>
       <c r="AE47" s="1">
         <v>0</v>
@@ -9986,7 +10062,7 @@
       <c r="AT47" s="1">
         <v>0</v>
       </c>
-      <c r="AU47" s="5">
+      <c r="AU47" s="10">
         <v>0</v>
       </c>
       <c r="AV47" s="1">
@@ -9995,8 +10071,8 @@
       <c r="AW47" s="1">
         <v>0</v>
       </c>
-      <c r="AX47" s="1">
-        <v>0</v>
+      <c r="AX47" s="3">
+        <v>1</v>
       </c>
       <c r="AY47" s="1">
         <v>0</v>
@@ -10034,21 +10110,21 @@
       <c r="BJ47" s="1">
         <v>0</v>
       </c>
-      <c r="BK47" s="1">
-        <v>0</v>
+      <c r="BK47" s="3">
+        <v>1</v>
       </c>
       <c r="BL47" s="1">
         <v>0</v>
       </c>
-      <c r="BM47" s="1">
-        <v>0</v>
+      <c r="BM47" s="3">
+        <v>1</v>
       </c>
       <c r="BN47" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="1">
@@ -10096,8 +10172,8 @@
       <c r="P48" s="1">
         <v>0</v>
       </c>
-      <c r="Q48" s="1">
-        <v>0</v>
+      <c r="Q48" s="6">
+        <v>1</v>
       </c>
       <c r="R48" s="1">
         <v>0</v>
@@ -10189,7 +10265,7 @@
       <c r="AU48" s="1">
         <v>0</v>
       </c>
-      <c r="AV48" s="5">
+      <c r="AV48" s="10">
         <v>0</v>
       </c>
       <c r="AW48" s="1">
@@ -10248,7 +10324,7 @@
       </c>
     </row>
     <row r="49" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="1">
@@ -10287,8 +10363,8 @@
       <c r="M49" s="1">
         <v>0</v>
       </c>
-      <c r="N49" s="1">
-        <v>0</v>
+      <c r="N49" s="7">
+        <v>1</v>
       </c>
       <c r="O49" s="1">
         <v>0</v>
@@ -10392,7 +10468,7 @@
       <c r="AV49" s="1">
         <v>0</v>
       </c>
-      <c r="AW49" s="5">
+      <c r="AW49" s="10">
         <v>0</v>
       </c>
       <c r="AX49" s="1">
@@ -10434,8 +10510,8 @@
       <c r="BJ49" s="1">
         <v>0</v>
       </c>
-      <c r="BK49" s="1">
-        <v>0</v>
+      <c r="BK49" s="7">
+        <v>1</v>
       </c>
       <c r="BL49" s="1">
         <v>0</v>
@@ -10448,7 +10524,7 @@
       </c>
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="1">
@@ -10457,8 +10533,8 @@
       <c r="C50" s="1">
         <v>0</v>
       </c>
-      <c r="D50" s="1">
-        <v>0</v>
+      <c r="D50" s="17">
+        <v>1</v>
       </c>
       <c r="E50" s="1">
         <v>0</v>
@@ -10466,11 +10542,11 @@
       <c r="F50" s="1">
         <v>0</v>
       </c>
-      <c r="G50" s="1">
-        <v>0</v>
-      </c>
-      <c r="H50" s="1">
-        <v>0</v>
+      <c r="G50" s="3">
+        <v>1</v>
+      </c>
+      <c r="H50" s="3">
+        <v>1</v>
       </c>
       <c r="I50" s="1">
         <v>0</v>
@@ -10502,8 +10578,8 @@
       <c r="R50" s="1">
         <v>0</v>
       </c>
-      <c r="S50" s="1">
-        <v>0</v>
+      <c r="S50" s="6">
+        <v>1</v>
       </c>
       <c r="T50" s="1">
         <v>0</v>
@@ -10514,8 +10590,8 @@
       <c r="V50" s="1">
         <v>0</v>
       </c>
-      <c r="W50" s="1">
-        <v>0</v>
+      <c r="W50" s="3">
+        <v>1</v>
       </c>
       <c r="X50" s="1">
         <v>0</v>
@@ -10523,20 +10599,20 @@
       <c r="Y50" s="1">
         <v>0</v>
       </c>
-      <c r="Z50" s="1">
-        <v>0</v>
+      <c r="Z50" s="3">
+        <v>1</v>
       </c>
       <c r="AA50" s="1">
         <v>0</v>
       </c>
-      <c r="AB50" s="1">
-        <v>0</v>
+      <c r="AB50" s="3">
+        <v>1</v>
       </c>
       <c r="AC50" s="1">
         <v>0</v>
       </c>
-      <c r="AD50" s="1">
-        <v>0</v>
+      <c r="AD50" s="3">
+        <v>1</v>
       </c>
       <c r="AE50" s="1">
         <v>0</v>
@@ -10544,7 +10620,7 @@
       <c r="AF50" s="1">
         <v>0</v>
       </c>
-      <c r="AG50" s="3">
+      <c r="AG50" s="5">
         <v>1</v>
       </c>
       <c r="AH50" s="1">
@@ -10565,7 +10641,7 @@
       <c r="AM50" s="1">
         <v>0</v>
       </c>
-      <c r="AN50" s="3">
+      <c r="AN50" s="5">
         <v>1</v>
       </c>
       <c r="AO50" s="1">
@@ -10586,8 +10662,8 @@
       <c r="AT50" s="1">
         <v>0</v>
       </c>
-      <c r="AU50" s="1">
-        <v>0</v>
+      <c r="AU50" s="3">
+        <v>1</v>
       </c>
       <c r="AV50" s="1">
         <v>0</v>
@@ -10595,7 +10671,7 @@
       <c r="AW50" s="1">
         <v>0</v>
       </c>
-      <c r="AX50" s="5">
+      <c r="AX50" s="10">
         <v>0</v>
       </c>
       <c r="AY50" s="1">
@@ -10634,21 +10710,21 @@
       <c r="BJ50" s="1">
         <v>0</v>
       </c>
-      <c r="BK50" s="1">
-        <v>0</v>
+      <c r="BK50" s="3">
+        <v>1</v>
       </c>
       <c r="BL50" s="1">
         <v>0</v>
       </c>
-      <c r="BM50" s="1">
-        <v>0</v>
+      <c r="BM50" s="3">
+        <v>1</v>
       </c>
       <c r="BN50" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="1">
@@ -10681,8 +10757,8 @@
       <c r="K51" s="1">
         <v>0</v>
       </c>
-      <c r="L51" s="1">
-        <v>0</v>
+      <c r="L51" s="3">
+        <v>1</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -10693,8 +10769,8 @@
       <c r="O51" s="1">
         <v>0</v>
       </c>
-      <c r="P51" s="1">
-        <v>0</v>
+      <c r="P51" s="8">
+        <v>1</v>
       </c>
       <c r="Q51" s="1">
         <v>0</v>
@@ -10705,14 +10781,14 @@
       <c r="S51" s="1">
         <v>0</v>
       </c>
-      <c r="T51" s="1">
-        <v>0</v>
+      <c r="T51" s="8">
+        <v>1</v>
       </c>
       <c r="U51" s="1">
         <v>0</v>
       </c>
-      <c r="V51" s="1">
-        <v>0</v>
+      <c r="V51" s="8">
+        <v>1</v>
       </c>
       <c r="W51" s="1">
         <v>0</v>
@@ -10720,14 +10796,14 @@
       <c r="X51" s="1">
         <v>0</v>
       </c>
-      <c r="Y51" s="1">
-        <v>0</v>
+      <c r="Y51" s="3">
+        <v>1</v>
       </c>
       <c r="Z51" s="1">
         <v>0</v>
       </c>
-      <c r="AA51" s="1">
-        <v>0</v>
+      <c r="AA51" s="3">
+        <v>1</v>
       </c>
       <c r="AB51" s="1">
         <v>0</v>
@@ -10750,8 +10826,8 @@
       <c r="AH51" s="1">
         <v>0</v>
       </c>
-      <c r="AI51" s="1">
-        <v>0</v>
+      <c r="AI51" s="11">
+        <v>1</v>
       </c>
       <c r="AJ51" s="1">
         <v>0</v>
@@ -10759,14 +10835,14 @@
       <c r="AK51" s="1">
         <v>0</v>
       </c>
-      <c r="AL51" s="1">
-        <v>0</v>
+      <c r="AL51" s="8">
+        <v>1</v>
       </c>
       <c r="AM51" s="1">
         <v>0</v>
       </c>
-      <c r="AN51" s="1">
-        <v>0</v>
+      <c r="AN51" s="3">
+        <v>1</v>
       </c>
       <c r="AO51" s="1">
         <v>0</v>
@@ -10798,7 +10874,7 @@
       <c r="AX51" s="1">
         <v>0</v>
       </c>
-      <c r="AY51" s="5">
+      <c r="AY51" s="10">
         <v>0</v>
       </c>
       <c r="AZ51" s="1">
@@ -10822,16 +10898,16 @@
       <c r="BF51" s="1">
         <v>0</v>
       </c>
-      <c r="BG51" s="3">
+      <c r="BG51" s="5">
         <v>1</v>
       </c>
       <c r="BH51" s="1">
         <v>0</v>
       </c>
-      <c r="BI51" s="3">
-        <v>1</v>
-      </c>
-      <c r="BJ51" s="6">
+      <c r="BI51" s="5">
+        <v>1</v>
+      </c>
+      <c r="BJ51" s="12">
         <v>0</v>
       </c>
       <c r="BK51" s="1">
@@ -10848,7 +10924,7 @@
       </c>
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="1">
@@ -11001,7 +11077,7 @@
       <c r="AY52" s="1">
         <v>0</v>
       </c>
-      <c r="AZ52" s="5">
+      <c r="AZ52" s="10">
         <v>0</v>
       </c>
       <c r="BA52" s="1">
@@ -11048,7 +11124,7 @@
       </c>
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="1">
@@ -11204,7 +11280,7 @@
       <c r="AZ53" s="1">
         <v>0</v>
       </c>
-      <c r="BA53" s="5">
+      <c r="BA53" s="10">
         <v>0</v>
       </c>
       <c r="BB53" s="1">
@@ -11248,7 +11324,7 @@
       </c>
     </row>
     <row r="54" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B54" s="1">
@@ -11407,7 +11483,7 @@
       <c r="BA54" s="1">
         <v>0</v>
       </c>
-      <c r="BB54" s="5">
+      <c r="BB54" s="10">
         <v>0</v>
       </c>
       <c r="BC54" s="1">
@@ -11448,7 +11524,7 @@
       </c>
     </row>
     <row r="55" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B55" s="1">
@@ -11610,7 +11686,7 @@
       <c r="BB55" s="1">
         <v>0</v>
       </c>
-      <c r="BC55" s="5">
+      <c r="BC55" s="10">
         <v>0</v>
       </c>
       <c r="BD55" s="1">
@@ -11648,7 +11724,7 @@
       </c>
     </row>
     <row r="56" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="1">
@@ -11687,8 +11763,8 @@
       <c r="M56" s="1">
         <v>0</v>
       </c>
-      <c r="N56" s="1">
-        <v>0</v>
+      <c r="N56" s="7">
+        <v>1</v>
       </c>
       <c r="O56" s="1">
         <v>0</v>
@@ -11813,7 +11889,7 @@
       <c r="BC56" s="1">
         <v>0</v>
       </c>
-      <c r="BD56" s="5">
+      <c r="BD56" s="10">
         <v>0</v>
       </c>
       <c r="BE56" s="1">
@@ -11848,7 +11924,7 @@
       </c>
     </row>
     <row r="57" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="1">
@@ -11938,8 +12014,8 @@
       <c r="AD57" s="1">
         <v>0</v>
       </c>
-      <c r="AE57" s="1">
-        <v>0</v>
+      <c r="AE57" s="6">
+        <v>1</v>
       </c>
       <c r="AF57" s="1">
         <v>0</v>
@@ -12016,13 +12092,13 @@
       <c r="BD57" s="1">
         <v>0</v>
       </c>
-      <c r="BE57" s="5">
+      <c r="BE57" s="10">
         <v>0</v>
       </c>
       <c r="BF57" s="1">
         <v>0</v>
       </c>
-      <c r="BG57" s="3">
+      <c r="BG57" s="6">
         <v>1</v>
       </c>
       <c r="BH57" s="1">
@@ -12048,7 +12124,7 @@
       </c>
     </row>
     <row r="58" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B58" s="1">
@@ -12174,7 +12250,7 @@
       <c r="AP58" s="1">
         <v>0</v>
       </c>
-      <c r="AQ58" s="3">
+      <c r="AQ58" s="5">
         <v>1</v>
       </c>
       <c r="AR58" s="1">
@@ -12219,7 +12295,7 @@
       <c r="BE58" s="1">
         <v>0</v>
       </c>
-      <c r="BF58" s="5">
+      <c r="BF58" s="10">
         <v>0</v>
       </c>
       <c r="BG58" s="1">
@@ -12228,8 +12304,8 @@
       <c r="BH58" s="1">
         <v>0</v>
       </c>
-      <c r="BI58" s="1">
-        <v>0</v>
+      <c r="BI58" s="6">
+        <v>1</v>
       </c>
       <c r="BJ58" s="1">
         <v>0</v>
@@ -12248,7 +12324,7 @@
       </c>
     </row>
     <row r="59" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="1">
@@ -12260,11 +12336,11 @@
       <c r="D59" s="1">
         <v>0</v>
       </c>
-      <c r="E59" s="1">
-        <v>0</v>
-      </c>
-      <c r="F59" s="1">
-        <v>0</v>
+      <c r="E59" s="8">
+        <v>1</v>
+      </c>
+      <c r="F59" s="8">
+        <v>1</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -12293,8 +12369,8 @@
       <c r="O59" s="1">
         <v>0</v>
       </c>
-      <c r="P59" s="1">
-        <v>0</v>
+      <c r="P59" s="6">
+        <v>1</v>
       </c>
       <c r="Q59" s="1">
         <v>0</v>
@@ -12314,13 +12390,13 @@
       <c r="V59" s="1">
         <v>0</v>
       </c>
-      <c r="W59" s="1">
-        <v>0</v>
+      <c r="W59" s="8">
+        <v>1</v>
       </c>
       <c r="X59" s="1">
         <v>0</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="6">
         <v>1</v>
       </c>
       <c r="Z59" s="1">
@@ -12398,7 +12474,7 @@
       <c r="AX59" s="1">
         <v>0</v>
       </c>
-      <c r="AY59" s="3">
+      <c r="AY59" s="5">
         <v>1</v>
       </c>
       <c r="AZ59" s="1">
@@ -12416,26 +12492,26 @@
       <c r="BD59" s="1">
         <v>0</v>
       </c>
-      <c r="BE59" s="3">
+      <c r="BE59" s="6">
         <v>1</v>
       </c>
       <c r="BF59" s="1">
         <v>0</v>
       </c>
-      <c r="BG59" s="3">
-        <v>1</v>
+      <c r="BG59" s="10">
+        <v>0</v>
       </c>
       <c r="BH59" s="1">
         <v>0</v>
       </c>
-      <c r="BI59" s="7">
+      <c r="BI59" s="13">
         <v>1</v>
       </c>
       <c r="BJ59" s="1">
         <v>0</v>
       </c>
-      <c r="BK59" s="1">
-        <v>0</v>
+      <c r="BK59" s="6">
+        <v>1</v>
       </c>
       <c r="BL59" s="1">
         <v>0</v>
@@ -12448,7 +12524,7 @@
       </c>
     </row>
     <row r="60" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="1">
@@ -12625,7 +12701,7 @@
       <c r="BG60" s="1">
         <v>0</v>
       </c>
-      <c r="BH60" s="5">
+      <c r="BH60" s="10">
         <v>0</v>
       </c>
       <c r="BI60" s="1">
@@ -12648,7 +12724,7 @@
       </c>
     </row>
     <row r="61" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="1">
@@ -12681,8 +12757,8 @@
       <c r="K61" s="1">
         <v>0</v>
       </c>
-      <c r="L61" s="1">
-        <v>0</v>
+      <c r="L61" s="3">
+        <v>1</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -12720,14 +12796,14 @@
       <c r="X61" s="1">
         <v>0</v>
       </c>
-      <c r="Y61" s="1">
-        <v>0</v>
+      <c r="Y61" s="6">
+        <v>1</v>
       </c>
       <c r="Z61" s="1">
         <v>0</v>
       </c>
-      <c r="AA61" s="1">
-        <v>0</v>
+      <c r="AA61" s="3">
+        <v>1</v>
       </c>
       <c r="AB61" s="1">
         <v>0</v>
@@ -12747,11 +12823,11 @@
       <c r="AG61" s="1">
         <v>0</v>
       </c>
-      <c r="AH61" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI61" s="1">
-        <v>0</v>
+      <c r="AH61" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI61" s="6">
+        <v>1</v>
       </c>
       <c r="AJ61" s="1">
         <v>0</v>
@@ -12765,8 +12841,8 @@
       <c r="AM61" s="1">
         <v>0</v>
       </c>
-      <c r="AN61" s="1">
-        <v>0</v>
+      <c r="AN61" s="3">
+        <v>1</v>
       </c>
       <c r="AO61" s="1">
         <v>0</v>
@@ -12798,7 +12874,7 @@
       <c r="AX61" s="1">
         <v>0</v>
       </c>
-      <c r="AY61" s="3">
+      <c r="AY61" s="5">
         <v>1</v>
       </c>
       <c r="AZ61" s="1">
@@ -12819,17 +12895,17 @@
       <c r="BE61" s="1">
         <v>0</v>
       </c>
-      <c r="BF61" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG61" s="3">
+      <c r="BF61" s="6">
+        <v>1</v>
+      </c>
+      <c r="BG61" s="5">
         <v>1</v>
       </c>
       <c r="BH61" s="1">
         <v>0</v>
       </c>
-      <c r="BI61" s="3">
-        <v>1</v>
+      <c r="BI61" s="10">
+        <v>0</v>
       </c>
       <c r="BJ61" s="1">
         <v>0</v>
@@ -12848,7 +12924,7 @@
       </c>
     </row>
     <row r="62" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="14" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="1">
@@ -12950,7 +13026,7 @@
       <c r="AH62" s="1">
         <v>0</v>
       </c>
-      <c r="AI62" s="3">
+      <c r="AI62" s="6">
         <v>1</v>
       </c>
       <c r="AJ62" s="1">
@@ -13031,7 +13107,7 @@
       <c r="BI62" s="1">
         <v>0</v>
       </c>
-      <c r="BJ62" s="5">
+      <c r="BJ62" s="10">
         <v>0</v>
       </c>
       <c r="BK62" s="1">
@@ -13040,15 +13116,15 @@
       <c r="BL62" s="1">
         <v>0</v>
       </c>
-      <c r="BM62" s="1">
-        <v>0</v>
+      <c r="BM62" s="3">
+        <v>1</v>
       </c>
       <c r="BN62" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B63" s="1">
@@ -13060,17 +13136,17 @@
       <c r="D63" s="1">
         <v>0</v>
       </c>
-      <c r="E63" s="1">
-        <v>0</v>
-      </c>
-      <c r="F63" s="1">
-        <v>0</v>
-      </c>
-      <c r="G63" s="1">
-        <v>0</v>
-      </c>
-      <c r="H63" s="1">
-        <v>0</v>
+      <c r="E63" s="8">
+        <v>1</v>
+      </c>
+      <c r="F63" s="8">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1</v>
+      </c>
+      <c r="H63" s="3">
+        <v>1</v>
       </c>
       <c r="I63" s="1">
         <v>0</v>
@@ -13087,8 +13163,8 @@
       <c r="M63" s="1">
         <v>0</v>
       </c>
-      <c r="N63" s="1">
-        <v>0</v>
+      <c r="N63" s="7">
+        <v>1</v>
       </c>
       <c r="O63" s="1">
         <v>0</v>
@@ -13114,8 +13190,8 @@
       <c r="V63" s="1">
         <v>0</v>
       </c>
-      <c r="W63" s="1">
-        <v>0</v>
+      <c r="W63" s="8">
+        <v>1</v>
       </c>
       <c r="X63" s="1">
         <v>0</v>
@@ -13123,20 +13199,20 @@
       <c r="Y63" s="1">
         <v>0</v>
       </c>
-      <c r="Z63" s="1">
-        <v>0</v>
+      <c r="Z63" s="3">
+        <v>1</v>
       </c>
       <c r="AA63" s="1">
         <v>0</v>
       </c>
-      <c r="AB63" s="1">
-        <v>0</v>
+      <c r="AB63" s="3">
+        <v>1</v>
       </c>
       <c r="AC63" s="1">
         <v>0</v>
       </c>
-      <c r="AD63" s="1">
-        <v>0</v>
+      <c r="AD63" s="3">
+        <v>1</v>
       </c>
       <c r="AE63" s="1">
         <v>0</v>
@@ -13147,8 +13223,8 @@
       <c r="AG63" s="1">
         <v>0</v>
       </c>
-      <c r="AH63" s="1">
-        <v>0</v>
+      <c r="AH63" s="6">
+        <v>1</v>
       </c>
       <c r="AI63" s="1">
         <v>0</v>
@@ -13186,17 +13262,17 @@
       <c r="AT63" s="1">
         <v>0</v>
       </c>
-      <c r="AU63" s="1">
-        <v>0</v>
+      <c r="AU63" s="3">
+        <v>1</v>
       </c>
       <c r="AV63" s="1">
         <v>0</v>
       </c>
-      <c r="AW63" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX63" s="1">
-        <v>0</v>
+      <c r="AW63" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX63" s="3">
+        <v>1</v>
       </c>
       <c r="AY63" s="1">
         <v>0</v>
@@ -13222,8 +13298,8 @@
       <c r="BF63" s="1">
         <v>0</v>
       </c>
-      <c r="BG63" s="1">
-        <v>0</v>
+      <c r="BG63" s="6">
+        <v>1</v>
       </c>
       <c r="BH63" s="1">
         <v>0</v>
@@ -13234,7 +13310,7 @@
       <c r="BJ63" s="1">
         <v>0</v>
       </c>
-      <c r="BK63" s="5">
+      <c r="BK63" s="10">
         <v>0</v>
       </c>
       <c r="BL63" s="1">
@@ -13248,7 +13324,7 @@
       </c>
     </row>
     <row r="64" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="1">
@@ -13437,7 +13513,7 @@
       <c r="BK64" s="1">
         <v>0</v>
       </c>
-      <c r="BL64" s="5">
+      <c r="BL64" s="10">
         <v>0</v>
       </c>
       <c r="BM64" s="1">
@@ -13448,7 +13524,7 @@
       </c>
     </row>
     <row r="65" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="14" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="1">
@@ -13460,17 +13536,17 @@
       <c r="D65" s="1">
         <v>0</v>
       </c>
-      <c r="E65" s="1">
-        <v>0</v>
+      <c r="E65" s="3">
+        <v>1</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
       </c>
-      <c r="G65" s="1">
-        <v>0</v>
-      </c>
-      <c r="H65" s="1">
-        <v>0</v>
+      <c r="G65" s="3">
+        <v>1</v>
+      </c>
+      <c r="H65" s="3">
+        <v>1</v>
       </c>
       <c r="I65" s="1">
         <v>0</v>
@@ -13508,8 +13584,8 @@
       <c r="T65" s="1">
         <v>0</v>
       </c>
-      <c r="U65" s="1">
-        <v>0</v>
+      <c r="U65" s="6">
+        <v>1</v>
       </c>
       <c r="V65" s="1">
         <v>0</v>
@@ -13517,26 +13593,26 @@
       <c r="W65" s="3">
         <v>1</v>
       </c>
-      <c r="X65" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y65" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="1">
-        <v>0</v>
+      <c r="X65" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>1</v>
       </c>
       <c r="AA65" s="1">
         <v>0</v>
       </c>
-      <c r="AB65" s="1">
-        <v>0</v>
+      <c r="AB65" s="3">
+        <v>1</v>
       </c>
       <c r="AC65" s="1">
         <v>0</v>
       </c>
-      <c r="AD65" s="1">
-        <v>0</v>
+      <c r="AD65" s="3">
+        <v>1</v>
       </c>
       <c r="AE65" s="1">
         <v>0</v>
@@ -13586,8 +13662,8 @@
       <c r="AT65" s="1">
         <v>0</v>
       </c>
-      <c r="AU65" s="1">
-        <v>0</v>
+      <c r="AU65" s="3">
+        <v>1</v>
       </c>
       <c r="AV65" s="1">
         <v>0</v>
@@ -13595,8 +13671,8 @@
       <c r="AW65" s="1">
         <v>0</v>
       </c>
-      <c r="AX65" s="1">
-        <v>0</v>
+      <c r="AX65" s="3">
+        <v>1</v>
       </c>
       <c r="AY65" s="1">
         <v>0</v>
@@ -13634,13 +13710,13 @@
       <c r="BJ65" s="1">
         <v>0</v>
       </c>
-      <c r="BK65" s="1">
-        <v>0</v>
+      <c r="BK65" s="3">
+        <v>1</v>
       </c>
       <c r="BL65" s="1">
         <v>0</v>
       </c>
-      <c r="BM65" s="5">
+      <c r="BM65" s="10">
         <v>0</v>
       </c>
       <c r="BN65" s="1">
@@ -13648,7 +13724,7 @@
       </c>
     </row>
     <row r="66" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="14" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="1">
@@ -13702,7 +13778,7 @@
       <c r="R66" s="1">
         <v>0</v>
       </c>
-      <c r="S66" s="3">
+      <c r="S66" s="5">
         <v>1</v>
       </c>
       <c r="T66" s="1">
@@ -13765,8 +13841,8 @@
       <c r="AM66" s="1">
         <v>0</v>
       </c>
-      <c r="AN66" s="1">
-        <v>0</v>
+      <c r="AN66" s="6">
+        <v>1</v>
       </c>
       <c r="AO66" s="1">
         <v>0</v>
@@ -13843,7 +13919,7 @@
       <c r="BM66" s="1">
         <v>0</v>
       </c>
-      <c r="BN66" s="5">
+      <c r="BN66" s="10">
         <v>0</v>
       </c>
     </row>
